--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.156219</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N2">
-        <v>0.468657</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O2">
-        <v>0.02370067533399361</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P2">
-        <v>0.02639406479478576</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q2">
-        <v>3.862012843353</v>
+        <v>5.436687397721555</v>
       </c>
       <c r="R2">
-        <v>34.758115590177</v>
+        <v>48.930186579494</v>
       </c>
       <c r="S2">
-        <v>0.0003177898890948961</v>
+        <v>0.0002554050596061386</v>
       </c>
       <c r="T2">
-        <v>0.0003552188581638232</v>
+        <v>0.0003287772167336289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.137322</v>
       </c>
       <c r="O3">
-        <v>0.6643737391741328</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P3">
-        <v>0.7398744243614509</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q3">
-        <v>108.2593587448047</v>
+        <v>127.9115604679415</v>
       </c>
       <c r="R3">
-        <v>974.334228703242</v>
+        <v>1151.204044211474</v>
       </c>
       <c r="S3">
-        <v>0.008908238010707061</v>
+        <v>0.006009037734875114</v>
       </c>
       <c r="T3">
-        <v>0.009957441199364299</v>
+        <v>0.0077352997813208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.015348</v>
+        <v>8.733703</v>
       </c>
       <c r="N4">
-        <v>0.046044</v>
+        <v>17.467406</v>
       </c>
       <c r="O4">
-        <v>0.00232851295313716</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P4">
-        <v>0.00259312955831475</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q4">
-        <v>0.379429986876</v>
+        <v>255.1071472694837</v>
       </c>
       <c r="R4">
-        <v>3.414869881884</v>
+        <v>1530.642883616902</v>
       </c>
       <c r="S4">
-        <v>3.12218054002936E-05</v>
+        <v>0.01198444041156759</v>
       </c>
       <c r="T4">
-        <v>3.489907780166534E-05</v>
+        <v>0.01028486793671051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.0178425</v>
+        <v>0.033591</v>
       </c>
       <c r="N5">
-        <v>4.035685</v>
+        <v>0.100773</v>
       </c>
       <c r="O5">
-        <v>0.3061358091373905</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P5">
-        <v>0.2272837733808414</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q5">
-        <v>49.88467248454751</v>
+        <v>0.9811765048490001</v>
       </c>
       <c r="R5">
-        <v>299.308034907285</v>
+        <v>8.830588543641001</v>
       </c>
       <c r="S5">
-        <v>0.00410481403853544</v>
+        <v>4.609377464117648E-05</v>
       </c>
       <c r="T5">
-        <v>0.003058849900052423</v>
+        <v>5.933548442087672E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02281433333333333</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N6">
-        <v>0.06844299999999999</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O6">
-        <v>0.003461263401345812</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P6">
-        <v>0.003854607904607254</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q6">
-        <v>0.5640110892136666</v>
+        <v>271.4259511128415</v>
       </c>
       <c r="R6">
-        <v>5.076099802922999</v>
+        <v>2442.833560015574</v>
       </c>
       <c r="S6">
-        <v>4.641026033820464E-05</v>
+        <v>0.01275106625620607</v>
       </c>
       <c r="T6">
-        <v>5.187641347362046E-05</v>
+        <v>0.01641416219618527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.156219</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N7">
-        <v>0.468657</v>
+        <v>13.137322</v>
       </c>
       <c r="O7">
-        <v>0.02370067533399361</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P7">
-        <v>0.02639406479478576</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q7">
-        <v>227.811197299861</v>
+        <v>6385.968958393461</v>
       </c>
       <c r="R7">
-        <v>2050.300775698749</v>
+        <v>57473.72062554115</v>
       </c>
       <c r="S7">
-        <v>0.01874568989305691</v>
+        <v>0.3000004714534382</v>
       </c>
       <c r="T7">
-        <v>0.02095353813260052</v>
+        <v>0.3861838922664289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.379107333333333</v>
+        <v>8.733703</v>
       </c>
       <c r="N8">
-        <v>13.137322</v>
+        <v>17.467406</v>
       </c>
       <c r="O8">
-        <v>0.6643737391741328</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P8">
-        <v>0.7398744243614509</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q8">
-        <v>6385.968958393461</v>
+        <v>12736.19301935992</v>
       </c>
       <c r="R8">
-        <v>57473.72062554115</v>
+        <v>76417.15811615954</v>
       </c>
       <c r="S8">
-        <v>0.5254763382116008</v>
+        <v>0.5983217167549766</v>
       </c>
       <c r="T8">
-        <v>0.5873664054676485</v>
+        <v>0.5134707695280648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015348</v>
+        <v>0.033591</v>
       </c>
       <c r="N9">
-        <v>0.046044</v>
+        <v>0.100773</v>
       </c>
       <c r="O9">
-        <v>0.00232851295313716</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P9">
-        <v>0.00259312955831475</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q9">
-        <v>22.381696568012</v>
+        <v>48.985116589529</v>
       </c>
       <c r="R9">
-        <v>201.435269112108</v>
+        <v>440.866049305761</v>
       </c>
       <c r="S9">
-        <v>0.001841702023944831</v>
+        <v>0.00230122604209422</v>
       </c>
       <c r="T9">
-        <v>0.002058615810235329</v>
+        <v>0.002962316777754617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H10">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.0178425</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N10">
-        <v>4.035685</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O10">
-        <v>0.3061358091373905</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P10">
-        <v>0.2272837733808414</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q10">
-        <v>2942.581349820091</v>
+        <v>10.79278501040178</v>
       </c>
       <c r="R10">
-        <v>17655.48809892054</v>
+        <v>97.13506509361598</v>
       </c>
       <c r="S10">
-        <v>0.2421334777333787</v>
+        <v>0.0005070241669684983</v>
       </c>
       <c r="T10">
-        <v>0.1804344745489002</v>
+        <v>0.0006526808618813402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H11">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02281433333333333</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N11">
-        <v>0.06844299999999999</v>
+        <v>13.137322</v>
       </c>
       <c r="O11">
-        <v>0.003461263401345812</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P11">
-        <v>0.003854607904607254</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q11">
-        <v>33.26970850066121</v>
+        <v>253.9270462844817</v>
       </c>
       <c r="R11">
-        <v>299.4273765059509</v>
+        <v>2285.343416560336</v>
       </c>
       <c r="S11">
-        <v>0.002737633820364347</v>
+        <v>0.01192900154956092</v>
       </c>
       <c r="T11">
-        <v>0.003060069540003835</v>
+        <v>0.01535593669884182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156219</v>
+        <v>8.733703</v>
       </c>
       <c r="N12">
-        <v>0.468657</v>
+        <v>17.467406</v>
       </c>
       <c r="O12">
-        <v>0.02370067533399361</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P12">
-        <v>0.02639406479478576</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q12">
-        <v>9.388729094010001</v>
+        <v>506.4327583466213</v>
       </c>
       <c r="R12">
-        <v>84.49856184609</v>
+        <v>3038.596550079727</v>
       </c>
       <c r="S12">
-        <v>0.0007725616921918528</v>
+        <v>0.02379123156616049</v>
       </c>
       <c r="T12">
-        <v>0.0008635532204725152</v>
+        <v>0.020417279931859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.379107333333333</v>
+        <v>0.033591</v>
       </c>
       <c r="N13">
-        <v>13.137322</v>
+        <v>0.100773</v>
       </c>
       <c r="O13">
-        <v>0.6643737391741328</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P13">
-        <v>0.7398744243614509</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q13">
-        <v>263.1834311207933</v>
+        <v>1.947808711336</v>
       </c>
       <c r="R13">
-        <v>2368.65088008714</v>
+        <v>17.530278402024</v>
       </c>
       <c r="S13">
-        <v>0.02165633227539385</v>
+        <v>9.15042862734051E-05</v>
       </c>
       <c r="T13">
-        <v>0.02420699300657928</v>
+        <v>0.0001177914196631845</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.015348</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N14">
-        <v>0.046044</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O14">
-        <v>0.00232851295313716</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P14">
-        <v>0.00259312955831475</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q14">
-        <v>0.9224115769200001</v>
+        <v>5.487235734823333</v>
       </c>
       <c r="R14">
-        <v>8.301704192280001</v>
+        <v>32.92341440894</v>
       </c>
       <c r="S14">
-        <v>7.590163073480536E-05</v>
+        <v>0.0002577797227246914</v>
       </c>
       <c r="T14">
-        <v>8.48412474014823E-05</v>
+        <v>0.0002212227116108226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.0178425</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N15">
-        <v>4.035685</v>
+        <v>13.137322</v>
       </c>
       <c r="O15">
-        <v>0.3061358091373905</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P15">
-        <v>0.2272837733808414</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q15">
-        <v>121.271910503075</v>
+        <v>129.1008355181233</v>
       </c>
       <c r="R15">
-        <v>727.6314630184501</v>
+        <v>774.60501310874</v>
       </c>
       <c r="S15">
-        <v>0.009978989856397998</v>
+        <v>0.006064907576721651</v>
       </c>
       <c r="T15">
-        <v>0.007436203403688887</v>
+        <v>0.00520481318549759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>29.481085</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>58.96217</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.02281433333333333</v>
+        <v>8.733703</v>
       </c>
       <c r="N16">
-        <v>0.06844299999999999</v>
+        <v>17.467406</v>
       </c>
       <c r="O16">
-        <v>0.003461263401345812</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P16">
-        <v>0.003854607904607254</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q16">
-        <v>1.371136642323333</v>
+        <v>257.479040507755</v>
       </c>
       <c r="R16">
-        <v>12.34022978091</v>
+        <v>1029.91616203102</v>
       </c>
       <c r="S16">
-        <v>0.0001128254563544063</v>
+        <v>0.01209586736875368</v>
       </c>
       <c r="T16">
-        <v>0.0001261139235492062</v>
+        <v>0.006920328592481766</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.156219</v>
+        <v>0.033591</v>
       </c>
       <c r="N17">
-        <v>0.468657</v>
+        <v>0.100773</v>
       </c>
       <c r="O17">
-        <v>0.02370067533399361</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P17">
-        <v>0.02639406479478576</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q17">
-        <v>3.198121929198</v>
+        <v>0.990299126235</v>
       </c>
       <c r="R17">
-        <v>19.188731575188</v>
+        <v>5.94179475741</v>
       </c>
       <c r="S17">
-        <v>0.0002631609097160353</v>
+        <v>4.65223377511011E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001961038222013598</v>
+        <v>3.992477608009827E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21.628479</v>
+      </c>
+      <c r="H18">
+        <v>64.885437</v>
+      </c>
+      <c r="I18">
+        <v>0.01354670393768061</v>
+      </c>
+      <c r="J18">
+        <v>0.01363060063446486</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>20.472042</v>
-      </c>
-      <c r="H18">
-        <v>40.944084</v>
-      </c>
-      <c r="I18">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J18">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.379107333333333</v>
+        <v>0.1861273333333333</v>
       </c>
       <c r="N18">
-        <v>13.137322</v>
+        <v>0.5583819999999999</v>
       </c>
       <c r="O18">
-        <v>0.6643737391741328</v>
+        <v>0.01396039250968796</v>
       </c>
       <c r="P18">
-        <v>0.7398744243614509</v>
+        <v>0.01786028945924599</v>
       </c>
       <c r="Q18">
-        <v>89.649269250508</v>
+        <v>4.025651120326</v>
       </c>
       <c r="R18">
-        <v>537.895615503048</v>
+        <v>36.23086008293399</v>
       </c>
       <c r="S18">
-        <v>0.007376886739667784</v>
+        <v>0.0001891173041825568</v>
       </c>
       <c r="T18">
-        <v>0.005497152624819457</v>
+        <v>0.0002434464728349245</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.015348</v>
+        <v>4.379107333333333</v>
       </c>
       <c r="N19">
-        <v>0.046044</v>
+        <v>13.137322</v>
       </c>
       <c r="O19">
-        <v>0.00232851295313716</v>
+        <v>0.3284528721308331</v>
       </c>
       <c r="P19">
-        <v>0.00259312955831475</v>
+        <v>0.4202076242416848</v>
       </c>
       <c r="Q19">
-        <v>0.314204900616</v>
+        <v>94.71343099774599</v>
       </c>
       <c r="R19">
-        <v>1.885229403696</v>
+        <v>852.4208789797138</v>
       </c>
       <c r="S19">
-        <v>2.585468888113296E-05</v>
+        <v>0.004449453816237263</v>
       </c>
       <c r="T19">
-        <v>1.926655184802406E-05</v>
+        <v>0.005727682309595682</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.0178425</v>
+        <v>8.733703</v>
       </c>
       <c r="N20">
-        <v>4.035685</v>
+        <v>17.467406</v>
       </c>
       <c r="O20">
-        <v>0.3061358091373905</v>
+        <v>0.655067258309039</v>
       </c>
       <c r="P20">
-        <v>0.2272837733808414</v>
+        <v>0.5587087822712233</v>
       </c>
       <c r="Q20">
-        <v>41.309356409385</v>
+        <v>188.896711927737</v>
       </c>
       <c r="R20">
-        <v>165.23742563754</v>
+        <v>1133.380271566422</v>
       </c>
       <c r="S20">
-        <v>0.003399184913254336</v>
+        <v>0.0088740022075807</v>
       </c>
       <c r="T20">
-        <v>0.001688683309330053</v>
+        <v>0.007615536282107227</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>21.628479</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>64.885437</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.02281433333333333</v>
+        <v>0.033591</v>
       </c>
       <c r="N21">
-        <v>0.06844299999999999</v>
+        <v>0.100773</v>
       </c>
       <c r="O21">
-        <v>0.003461263401345812</v>
+        <v>0.002519477050439994</v>
       </c>
       <c r="P21">
-        <v>0.003854607904607254</v>
+        <v>0.003223304027845805</v>
       </c>
       <c r="Q21">
-        <v>0.4670559902019999</v>
+        <v>0.726522238089</v>
       </c>
       <c r="R21">
-        <v>2.802335941212</v>
+        <v>6.538700142801</v>
       </c>
       <c r="S21">
-        <v>3.843220552279088E-05</v>
+        <v>3.41306096800914E-05</v>
       </c>
       <c r="T21">
-        <v>2.863914099848645E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>280.168911</v>
-      </c>
-      <c r="H22">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I22">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J22">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.156219</v>
-      </c>
-      <c r="N22">
-        <v>0.468657</v>
-      </c>
-      <c r="O22">
-        <v>0.02370067533399361</v>
-      </c>
-      <c r="P22">
-        <v>0.02639406479478576</v>
-      </c>
-      <c r="Q22">
-        <v>43.767707107509</v>
-      </c>
-      <c r="R22">
-        <v>393.909363967581</v>
-      </c>
-      <c r="S22">
-        <v>0.003601472949933912</v>
-      </c>
-      <c r="T22">
-        <v>0.004025650761347544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>280.168911</v>
-      </c>
-      <c r="H23">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I23">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J23">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.379107333333333</v>
-      </c>
-      <c r="N23">
-        <v>13.137322</v>
-      </c>
-      <c r="O23">
-        <v>0.6643737391741328</v>
-      </c>
-      <c r="P23">
-        <v>0.7398744243614509</v>
-      </c>
-      <c r="Q23">
-        <v>1226.889732732114</v>
-      </c>
-      <c r="R23">
-        <v>11042.00759458903</v>
-      </c>
-      <c r="S23">
-        <v>0.1009559439367633</v>
-      </c>
-      <c r="T23">
-        <v>0.1128464320630393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>280.168911</v>
-      </c>
-      <c r="H24">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I24">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J24">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.015348</v>
-      </c>
-      <c r="N24">
-        <v>0.046044</v>
-      </c>
-      <c r="O24">
-        <v>0.00232851295313716</v>
-      </c>
-      <c r="P24">
-        <v>0.00259312955831475</v>
-      </c>
-      <c r="Q24">
-        <v>4.300032446028001</v>
-      </c>
-      <c r="R24">
-        <v>38.70029201425201</v>
-      </c>
-      <c r="S24">
-        <v>0.0003538328041760969</v>
-      </c>
-      <c r="T24">
-        <v>0.0003955068710282494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>280.168911</v>
-      </c>
-      <c r="H25">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I25">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J25">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.0178425</v>
-      </c>
-      <c r="N25">
-        <v>4.035685</v>
-      </c>
-      <c r="O25">
-        <v>0.3061358091373905</v>
-      </c>
-      <c r="P25">
-        <v>0.2272837733808414</v>
-      </c>
-      <c r="Q25">
-        <v>565.3367357945176</v>
-      </c>
-      <c r="R25">
-        <v>3392.020414767105</v>
-      </c>
-      <c r="S25">
-        <v>0.04651934259582394</v>
-      </c>
-      <c r="T25">
-        <v>0.03466556221886979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>280.168911</v>
-      </c>
-      <c r="H26">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I26">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J26">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.02281433333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.06844299999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.003461263401345812</v>
-      </c>
-      <c r="P26">
-        <v>0.003854607904607254</v>
-      </c>
-      <c r="Q26">
-        <v>6.391866925191</v>
-      </c>
-      <c r="R26">
-        <v>57.52680232671899</v>
-      </c>
-      <c r="S26">
-        <v>0.0005259616587660628</v>
-      </c>
-      <c r="T26">
-        <v>0.0005879088865821055</v>
+        <v>4.393556992702818E-05</v>
       </c>
     </row>
   </sheetData>
